--- a/BalanceSheet/EFX_bal.xlsx
+++ b/BalanceSheet/EFX_bal.xlsx
@@ -2809,19 +2809,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>23100000.0</v>
+        <v>381000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-11500000.0</v>
+        <v>323000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>48500000.0</v>
+        <v>340000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>12500000.0</v>
+        <v>288000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>17000000.0</v>
+        <v>263000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>248000000.0</v>
